--- a/schematic/RX12G.xlsx
+++ b/schematic/RX12G.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\RX12G\schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E5001F-0586-4B53-B89D-17A453907B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FF8D3548-BD74-43E6-912E-B01CAC8E0B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Item</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Diode_SMD:D_SOD-123</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -196,13 +190,10 @@
     <t>SamacSys Parts:ASTMUPCE3312000MHZLJET</t>
   </si>
   <si>
-    <t>Collated Components:</t>
-  </si>
-  <si>
     <t>C1, C2, C3, C4, C5, C6, C7, C10, C11</t>
   </si>
   <si>
-    <t>D1, D2, D3, D4</t>
+    <t>D1, D2, D3, D4, D6</t>
   </si>
   <si>
     <t>J2, J3, J4</t>
@@ -215,13 +206,16 @@
   </si>
   <si>
     <t>R2, R4, R5, R12</t>
+  </si>
+  <si>
+    <t>RX12G BOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +346,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -698,12 +699,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,224 +1070,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E1:E1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="14.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
-      </c>
       <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>31</v>
@@ -1286,189 +1312,155 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
